--- a/lähteet/pdf/käytettävyys/Book1.xlsx
+++ b/lähteet/pdf/käytettävyys/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makinen\Desktop\gradu\lähteet\pdf\käytettävyys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBCDF12-C806-4ABB-9D34-866401142FC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08838A71-3EEE-49C8-8C44-144ADC81CED5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{F59FCBFB-E663-4310-98C0-6731BD10FE82}"/>
+    <workbookView xWindow="31320" yWindow="2340" windowWidth="21600" windowHeight="10920" xr2:uid="{F59FCBFB-E663-4310-98C0-6731BD10FE82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
